--- a/DatabaseDesign.xlsx
+++ b/DatabaseDesign.xlsx
@@ -62,9 +62,6 @@
     <t>ShippingAddress</t>
   </si>
   <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
     <t>ShippingAddressId</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>WD HDD</t>
+  </si>
+  <si>
+    <t>OrderStatusId</t>
   </si>
 </sst>
 </file>
@@ -197,15 +197,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +489,7 @@
   <dimension ref="C2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,52 +502,52 @@
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3"/>
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6"/>
       <c r="K2" s="2"/>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -655,63 +655,63 @@
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="I13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="I13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="6"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="7"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F15" s="2">
         <v>248001</v>
@@ -729,9 +729,9 @@
       <c r="L15" s="2">
         <v>2</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="M15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
@@ -751,9 +751,9 @@
       <c r="L16" s="2">
         <v>4</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="M16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
@@ -765,9 +765,9 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="M17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
@@ -779,16 +779,16 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H20" s="2"/>
-      <c r="I20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="3"/>
+      <c r="I20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="6"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -796,29 +796,29 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="H21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" s="2">
         <v>2</v>
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" s="2">
         <v>0.5</v>
